--- a/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Каталожный номер</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Сумма, макс.</t>
+  </si>
+  <si>
+    <t>Валюта</t>
   </si>
 </sst>
 </file>
@@ -115,12 +118,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,9 +440,10 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -466,6 +473,9 @@
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +494,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Спецификации" sheetId="1" r:id="rId1"/>
+    <sheet name="Лот" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Каталожный номер</t>
   </si>
@@ -58,13 +58,61 @@
   </si>
   <si>
     <t>Валюта</t>
+  </si>
+  <si>
+    <t>Курс Доллара</t>
+  </si>
+  <si>
+    <t>Курс Евро</t>
+  </si>
+  <si>
+    <t>Тип сделки</t>
+  </si>
+  <si>
+    <t>ФИО менеджера</t>
+  </si>
+  <si>
+    <t>Наименование заказчика</t>
+  </si>
+  <si>
+    <t>Срок готовности цен от снабжения</t>
+  </si>
+  <si>
+    <t>Максимальная цена контракта</t>
+  </si>
+  <si>
+    <t>Срок поставки</t>
+  </si>
+  <si>
+    <t>Место поставки (адрес)</t>
+  </si>
+  <si>
+    <t>Окончание приема заявок (согласно документации)</t>
+  </si>
+  <si>
+    <t>Дата аукциона</t>
+  </si>
+  <si>
+    <t>Дополнительные сведения</t>
+  </si>
+  <si>
+    <t>Цена с ТЗР</t>
+  </si>
+  <si>
+    <t>Сумма с ТЗР</t>
+  </si>
+  <si>
+    <t>Цена с НДС</t>
+  </si>
+  <si>
+    <t>Сумма с НДС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +130,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFD00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -118,15 +193,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -135,6 +222,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,64 +515,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24">
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
       <formula1>Единицы</formula1>
     </dataValidation>
   </dataValidations>
@@ -494,7 +663,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Каталожный номер</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Наименование *</t>
   </si>
   <si>
-    <t>Замена</t>
-  </si>
-  <si>
     <t>Единица</t>
   </si>
   <si>
@@ -51,15 +48,6 @@
     <t>№ пп</t>
   </si>
   <si>
-    <t>Цена за ед., макс.</t>
-  </si>
-  <si>
-    <t>Сумма, макс.</t>
-  </si>
-  <si>
-    <t>Валюта</t>
-  </si>
-  <si>
     <t>Курс Доллара</t>
   </si>
   <si>
@@ -69,50 +57,50 @@
     <t>Тип сделки</t>
   </si>
   <si>
-    <t>ФИО менеджера</t>
-  </si>
-  <si>
-    <t>Наименование заказчика</t>
-  </si>
-  <si>
-    <t>Срок готовности цен от снабжения</t>
-  </si>
-  <si>
-    <t>Максимальная цена контракта</t>
-  </si>
-  <si>
     <t>Срок поставки</t>
   </si>
   <si>
-    <t>Место поставки (адрес)</t>
-  </si>
-  <si>
-    <t>Окончание приема заявок (согласно документации)</t>
-  </si>
-  <si>
     <t>Дата аукциона</t>
   </si>
   <si>
-    <t>Дополнительные сведения</t>
-  </si>
-  <si>
-    <t>Цена с ТЗР</t>
-  </si>
-  <si>
-    <t>Сумма с ТЗР</t>
-  </si>
-  <si>
-    <t>Цена с НДС</t>
+    <t>№ конкурса</t>
+  </si>
+  <si>
+    <t>Дата начала</t>
+  </si>
+  <si>
+    <t>Срок сдачи</t>
+  </si>
+  <si>
+    <t>Срок подачи КП</t>
+  </si>
+  <si>
+    <t>Заказчик</t>
+  </si>
+  <si>
+    <t>ИНН заказчика</t>
   </si>
   <si>
     <t>Сумма с НДС</t>
+  </si>
+  <si>
+    <t>Ссылка на закупки</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Подразделение менеджера</t>
+  </si>
+  <si>
+    <t>Место поставки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -146,7 +128,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFD00000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -193,28 +175,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,141 +498,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24">
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="30">
-      <c r="A13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="17" spans="1:14">
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="H22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="K23" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
       <formula1>Единицы</formula1>
     </dataValidation>
   </dataValidations>
@@ -670,12 +667,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Specification.xlsx
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,18 +120,11 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,17 +176,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,112 +496,113 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -629,20 +624,20 @@
       <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="H22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="K23" s="3"/>
+      <c r="K23" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
